--- a/mxm3.1 - pcie3.0 mapping.xlsx
+++ b/mxm3.1 - pcie3.0 mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{4D2670E6-8CF9-B24B-9FB4-1CCD69BFB260}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14180" xr2:uid="{4D2670E6-8CF9-B24B-9FB4-1CCD69BFB260}"/>
   </bookViews>
   <sheets>
     <sheet name="map-step1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="409">
   <si>
     <t>+12 V</t>
   </si>
@@ -1119,9 +1119,6 @@
     <t>30A</t>
   </si>
   <si>
-    <t>7B</t>
-  </si>
-  <si>
     <t>33B</t>
   </si>
   <si>
@@ -1269,22 +1266,25 @@
     <t>Ground*</t>
   </si>
   <si>
-    <t>PERST#^</t>
-  </si>
-  <si>
     <t>PWR_GOOD^</t>
   </si>
   <si>
-    <t>PEX_RST#^</t>
-  </si>
-  <si>
-    <t>^PEX_RST is the PCIe reset signal. PERST# indicates when the applied main power is within the specified tolerance and stable. This matches MXM PWR_GOOD signal. So what is the match for the PEX_RST?</t>
-  </si>
-  <si>
-    <t>*defaults to low swing if not connected to ground. Not sure which PIN in PCIE spec matches this. Connecting to ground allows for standard (desktop) level swing. Is that ok?</t>
-  </si>
-  <si>
     <t>PCI-e connector pinout</t>
+  </si>
+  <si>
+    <t>*PEX_STD_SW#</t>
+  </si>
+  <si>
+    <t>^PWR_GOOD</t>
+  </si>
+  <si>
+    <t>Looking at a few laptop service manuals this pin connects to 3V3, pin 278, through a 10K_04 resistor</t>
+  </si>
+  <si>
+    <t>As, above connects to ground through a 0_04 resistor</t>
+  </si>
+  <si>
+    <t>to 278 thru 10K_04R</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1831,16 +1831,10 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,18 +1843,17 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,6 +1861,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FBBE2-EA97-484E-97D5-A3156F03F794}">
-  <dimension ref="A1:T158"/>
+  <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2236,26 +2235,26 @@
       <c r="K1" s="48"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="N4" s="83" t="s">
-        <v>408</v>
-      </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
+      <c r="N4" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="48"/>
       <c r="R4" s="3" t="s">
         <v>318</v>
@@ -2263,29 +2262,29 @@
       <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="H5" s="86"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="73"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -2439,13 +2438,15 @@
       <c r="C9" s="43">
         <v>2</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="41"/>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
@@ -2522,15 +2523,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>403</v>
+      <c r="G11" s="84"/>
+      <c r="H11" s="83" t="s">
+        <v>408</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="46"/>
@@ -2754,7 +2753,7 @@
       <c r="A18" s="43">
         <v>19</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="43">
@@ -2763,11 +2762,9 @@
       <c r="D18" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>353</v>
-      </c>
+      <c r="E18" s="46"/>
       <c r="F18" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
@@ -2957,10 +2954,10 @@
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="46" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="41"/>
@@ -2993,10 +2990,10 @@
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="46" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="41"/>
@@ -3218,7 +3215,7 @@
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>100</v>
@@ -3252,13 +3249,13 @@
         <v>177</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F33" s="76" t="s">
         <v>94</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>103</v>
@@ -3292,7 +3289,7 @@
         <v>149</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F34" s="76" t="s">
         <v>97</v>
@@ -3330,7 +3327,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H35" s="46" t="s">
         <v>88</v>
@@ -3364,13 +3361,13 @@
         <v>181</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F36" s="76" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H36" s="46" t="s">
         <v>91</v>
@@ -3404,7 +3401,7 @@
         <v>149</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F37" s="76" t="s">
         <v>85</v>
@@ -3442,7 +3439,7 @@
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
       <c r="G38" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H38" s="46" t="s">
         <v>76</v>
@@ -3476,13 +3473,13 @@
         <v>185</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H39" s="46" t="s">
         <v>79</v>
@@ -3516,7 +3513,7 @@
         <v>149</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>73</v>
@@ -3554,7 +3551,7 @@
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
       <c r="G41" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H41" s="46" t="s">
         <v>64</v>
@@ -3584,13 +3581,13 @@
         <v>189</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H42" s="46" t="s">
         <v>67</v>
@@ -3624,7 +3621,7 @@
         <v>149</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>63</v>
@@ -3662,7 +3659,7 @@
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>53</v>
@@ -3696,13 +3693,13 @@
         <v>193</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="46" t="s">
         <v>56</v>
@@ -3736,7 +3733,7 @@
         <v>149</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>49</v>
@@ -3774,7 +3771,7 @@
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
       <c r="G47" s="46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H47" s="46" t="s">
         <v>39</v>
@@ -3808,13 +3805,13 @@
         <v>197</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H48" s="46" t="s">
         <v>42</v>
@@ -3848,7 +3845,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F49" s="46" t="s">
         <v>35</v>
@@ -3886,7 +3883,7 @@
       <c r="E50" s="46"/>
       <c r="F50" s="46"/>
       <c r="G50" s="46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>25</v>
@@ -3920,13 +3917,13 @@
         <v>201</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F51" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>29</v>
@@ -3960,7 +3957,7 @@
         <v>149</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F52" s="46" t="s">
         <v>23</v>
@@ -3998,7 +3995,7 @@
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
       <c r="G53" s="46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H53" s="46" t="s">
         <v>13</v>
@@ -4032,13 +4029,13 @@
         <v>205</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F54" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H54" s="46" t="s">
         <v>15</v>
@@ -4072,7 +4069,7 @@
         <v>149</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F55" s="46" t="s">
         <v>11</v>
@@ -4110,7 +4107,7 @@
       <c r="E56" s="46"/>
       <c r="F56" s="46"/>
       <c r="G56" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H56" s="46" t="s">
         <v>132</v>
@@ -4144,13 +4141,13 @@
         <v>209</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F57" s="46" t="s">
         <v>125</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H57" s="46" t="s">
         <v>136</v>
@@ -4184,7 +4181,7 @@
         <v>149</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>129</v>
@@ -4222,7 +4219,7 @@
       <c r="E59" s="46"/>
       <c r="F59" s="46"/>
       <c r="G59" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H59" s="46" t="s">
         <v>120</v>
@@ -4252,13 +4249,13 @@
         <v>213</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F60" s="46" t="s">
         <v>117</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H60" s="46" t="s">
         <v>122</v>
@@ -4292,7 +4289,7 @@
         <v>149</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F61" s="46" t="s">
         <v>119</v>
@@ -4330,7 +4327,7 @@
       <c r="E62" s="46"/>
       <c r="F62" s="46"/>
       <c r="G62" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>114</v>
@@ -4364,13 +4361,13 @@
         <v>217</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F63" s="46" t="s">
         <v>111</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>116</v>
@@ -4404,7 +4401,7 @@
         <v>149</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F64" s="46" t="s">
         <v>113</v>
@@ -4442,7 +4439,7 @@
       <c r="E65" s="46"/>
       <c r="F65" s="46"/>
       <c r="G65" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>108</v>
@@ -4476,13 +4473,13 @@
         <v>221</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F66" s="46" t="s">
         <v>105</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>110</v>
@@ -4516,7 +4513,7 @@
         <v>149</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F67" s="46" t="s">
         <v>107</v>
@@ -5207,16 +5204,16 @@
       <c r="D87" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="E87" s="79" t="s">
+      <c r="E87" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="F87" s="79" t="s">
+      <c r="F87" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="G87" s="79" t="s">
+      <c r="G87" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="H87" s="79" t="s">
+      <c r="H87" s="46" t="s">
         <v>43</v>
       </c>
       <c r="I87" s="41"/>
@@ -5245,16 +5242,20 @@
         <v>156</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="E88" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="F88" s="79" t="s">
+      <c r="F88" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
+      <c r="G88" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>37</v>
+      </c>
       <c r="I88" s="41"/>
       <c r="J88" s="46"/>
       <c r="K88" s="46"/>
@@ -6596,7 +6597,7 @@
       <c r="L144" s="46"/>
       <c r="M144" s="46"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="43">
         <v>269</v>
       </c>
@@ -6619,7 +6620,7 @@
       <c r="L145" s="46"/>
       <c r="M145" s="46"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="43">
         <v>271</v>
       </c>
@@ -6642,7 +6643,7 @@
       <c r="L146" s="46"/>
       <c r="M146" s="46"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="43">
         <v>273</v>
       </c>
@@ -6665,7 +6666,7 @@
       <c r="L147" s="46"/>
       <c r="M147" s="46"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="43">
         <v>275</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="L148" s="46"/>
       <c r="M148" s="46"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="43">
         <v>277</v>
       </c>
@@ -6711,7 +6712,7 @@
       <c r="L149" s="46"/>
       <c r="M149" s="46"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="43">
         <v>279</v>
       </c>
@@ -6734,17 +6735,19 @@
       <c r="L150" s="46"/>
       <c r="M150" s="46"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="43">
         <v>281</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="80" t="s">
         <v>317</v>
       </c>
       <c r="C151" s="58"/>
       <c r="D151" s="58"/>
       <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
+      <c r="F151" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="G151" s="46"/>
       <c r="H151" s="46"/>
       <c r="I151" s="41"/>
@@ -6753,7 +6756,7 @@
       <c r="L151" s="46"/>
       <c r="M151" s="46"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E152" s="41" t="s">
         <v>324</v>
       </c>
@@ -6780,60 +6783,65 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="87" t="s">
+    <row r="154" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="C154" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="86"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" s="87"/>
+      <c r="B155" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="85" t="s">
         <v>407</v>
       </c>
-      <c r="C154" s="87"/>
-      <c r="D154" s="87"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="87"/>
-      <c r="H154" s="87"/>
-    </row>
-    <row r="155" spans="1:13" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="88" t="s">
-        <v>406</v>
-      </c>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="88"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B156" s="80"/>
-      <c r="C156" s="80"/>
-      <c r="D156" s="80"/>
-      <c r="E156" s="80"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="80"/>
-      <c r="H156" s="80"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B157" s="80"/>
-      <c r="C157" s="80"/>
-      <c r="D157" s="80"/>
-      <c r="E157" s="80"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="80"/>
-      <c r="H157" s="80"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B158" s="80"/>
-      <c r="C158" s="80"/>
-      <c r="D158" s="80"/>
-      <c r="E158" s="80"/>
-      <c r="F158" s="80"/>
-      <c r="G158" s="80"/>
-      <c r="H158" s="80"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="86"/>
+      <c r="K155" s="86"/>
+      <c r="L155" s="86"/>
+      <c r="M155" s="86"/>
+      <c r="N155" s="87"/>
+      <c r="O155" s="87"/>
+      <c r="P155" s="87"/>
+      <c r="Q155" s="87"/>
+      <c r="R155" s="87"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B156" s="79"/>
+      <c r="C156" s="79"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B157" s="79"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:B5"/>
@@ -6873,33 +6881,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="50"/>
       <c r="G3" s="44"/>
       <c r="H3" s="43"/>
